--- a/Antecipacoes SAF Botafogo.xlsx
+++ b/Antecipacoes SAF Botafogo.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://safbotafogo-my.sharepoint.com/personal/thiago_almeida_safbfr_com_br/Documents/Área de Trabalho/Projeto Dashboard/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="12" documentId="8_{4EC78F22-5F50-43D8-97E0-133FB65C1CAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{83F9FE4D-C502-4A5F-AAD5-D0704D6FD596}"/>
+  <xr:revisionPtr revIDLastSave="32" documentId="8_{4EC78F22-5F50-43D8-97E0-133FB65C1CAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{785DF4FD-A760-4B89-9583-43C25A0A4538}"/>
   <bookViews>
-    <workbookView xWindow="-25440" yWindow="3360" windowWidth="21600" windowHeight="10920" xr2:uid="{B2232CD4-3A43-4622-BDA3-D59E0E28CDCD}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B2232CD4-3A43-4622-BDA3-D59E0E28CDCD}"/>
   </bookViews>
   <sheets>
     <sheet name="Database" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Database!$G$1:$W$46</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Database!$A$1:$V$46</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,52 +44,7 @@
     <t>CCB</t>
   </si>
   <si>
-    <t>Categoria</t>
-  </si>
-  <si>
-    <t>IF</t>
-  </si>
-  <si>
-    <t>Vcto</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>D%</t>
-  </si>
-  <si>
-    <t>Valor (ME)</t>
-  </si>
-  <si>
-    <t>Valor (BRL)</t>
-  </si>
-  <si>
     <t>% total</t>
-  </si>
-  <si>
-    <t>Deságio</t>
-  </si>
-  <si>
-    <t>Juros Estimados</t>
-  </si>
-  <si>
-    <t>Outras Taxas</t>
-  </si>
-  <si>
-    <t>Outras Despesas</t>
-  </si>
-  <si>
-    <t>Custo Total</t>
-  </si>
-  <si>
-    <t>Custo %</t>
-  </si>
-  <si>
-    <t>Valor Líquido</t>
-  </si>
-  <si>
-    <t>Taxa de Juros</t>
   </si>
   <si>
     <t>CET</t>
@@ -131,13 +86,7 @@
     <t>ADYEN</t>
   </si>
   <si>
-    <t>% por IF</t>
-  </si>
-  <si>
     <t>Emissão</t>
-  </si>
-  <si>
-    <t>CET por IF</t>
   </si>
   <si>
     <t>Ticket Sales</t>
@@ -159,6 +108,57 @@
   </si>
   <si>
     <t>Jefferson Savarino</t>
+  </si>
+  <si>
+    <t>Mês</t>
+  </si>
+  <si>
+    <t>Due Date</t>
+  </si>
+  <si>
+    <t>Days</t>
+  </si>
+  <si>
+    <t>Days %</t>
+  </si>
+  <si>
+    <t>Amount ME</t>
+  </si>
+  <si>
+    <t>Amount BRL</t>
+  </si>
+  <si>
+    <t>% by Bank</t>
+  </si>
+  <si>
+    <t>Discount</t>
+  </si>
+  <si>
+    <t>CET by Bank</t>
+  </si>
+  <si>
+    <t>Interest Rate</t>
+  </si>
+  <si>
+    <t>Net Amount</t>
+  </si>
+  <si>
+    <t>Total Cost</t>
+  </si>
+  <si>
+    <t>Other Expenses</t>
+  </si>
+  <si>
+    <t>Other Taxes</t>
+  </si>
+  <si>
+    <t>Interest</t>
+  </si>
+  <si>
+    <t>Bank</t>
+  </si>
+  <si>
+    <t>Category</t>
   </si>
 </sst>
 </file>
@@ -623,10 +623,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D648F7A7-4983-45EB-B723-9754ACCF4D90}">
-  <dimension ref="A1:W61"/>
+  <dimension ref="A1:V61"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.4"/>
@@ -649,95 +649,93 @@
     <col min="16" max="16" width="16.7265625" style="7" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="17.36328125" style="1" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="18.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="16.08984375" style="7" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="20" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.36328125" style="7" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11.26953125" style="7" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="13.36328125" style="7" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="8.7265625" style="7"/>
+    <col min="19" max="19" width="20" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.36328125" style="7" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.26953125" style="7" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.36328125" style="7" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="8.7265625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="M1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="N1" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="S1" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="T1" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="U1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E1" s="3" t="s">
+      <c r="V1" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="F1" s="2"/>
-      <c r="G1" s="3" t="s">
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="B2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="C2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="N1" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q1" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="R1" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="T1" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="U1" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="W1" s="22" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A2" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>20</v>
-      </c>
       <c r="D2" s="8" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="E2" s="9">
         <v>45698</v>
@@ -787,34 +785,34 @@
         <f>SUM(N2:Q2)</f>
         <v>8667103.3332546093</v>
       </c>
-      <c r="T2" s="1">
+      <c r="S2" s="1">
         <f>K2-R2</f>
         <v>37211215.389782906</v>
       </c>
-      <c r="U2" s="13">
+      <c r="T2" s="13">
         <v>1.1196826495755721E-2</v>
       </c>
+      <c r="U2" s="14">
+        <f t="shared" ref="U2:U9" si="2">R2/K2</f>
+        <v>0.18891501638447086</v>
+      </c>
       <c r="V2" s="14">
-        <f t="shared" ref="V2:V9" si="2">R2/K2</f>
-        <v>0.18891501638447086</v>
-      </c>
-      <c r="W2" s="14">
-        <f>V2/SUMIFS(V:V,C:C,C2)</f>
+        <f>U2/SUMIFS(U:U,C:C,C2)</f>
         <v>0.4301307980040267</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A3" s="8" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="E3" s="9">
         <v>45698</v>
@@ -841,7 +839,7 @@
         <v>22643170.208466906</v>
       </c>
       <c r="L3" s="14">
-        <f>K3/SUMIFS(K:K,C:C,C3)</f>
+        <f t="shared" ref="L3:L46" si="5">K3/SUMIFS(K:K,C:C,C3)</f>
         <v>0.33045356371490281</v>
       </c>
       <c r="M3" s="12">
@@ -864,34 +862,34 @@
         <f>SUM(N3:Q3)</f>
         <v>5667328.1281838678</v>
       </c>
-      <c r="T3" s="1">
+      <c r="S3" s="1">
         <f>K3-R3</f>
         <v>16975842.080283038</v>
       </c>
-      <c r="U3" s="13">
+      <c r="T3" s="13">
         <v>1.1196826495755721E-2</v>
       </c>
-      <c r="V3" s="14">
+      <c r="U3" s="14">
         <f t="shared" si="2"/>
         <v>0.25028863343811714</v>
       </c>
-      <c r="W3" s="14">
-        <f>V3/SUMIFS(V:V,C:C,C3)</f>
+      <c r="V3" s="14">
+        <f>U3/SUMIFS(U:U,C:C,C3)</f>
         <v>0.56986920199597335</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A4" s="8" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="E4" s="9">
         <v>45735</v>
@@ -918,7 +916,7 @@
         <v>46232928</v>
       </c>
       <c r="L4" s="14">
-        <f>K4/SUMIFS(K:K,C:C,C4)</f>
+        <f t="shared" si="5"/>
         <v>0.26666666666666666</v>
       </c>
       <c r="M4" s="12">
@@ -938,37 +936,37 @@
         <v>356885.02263272728</v>
       </c>
       <c r="R4" s="1">
-        <f t="shared" ref="R4:R27" si="5">SUM(N4:Q4)</f>
+        <f t="shared" ref="R4:R27" si="6">SUM(N4:Q4)</f>
         <v>5687690.0541527271</v>
       </c>
-      <c r="T4" s="1">
-        <f t="shared" ref="T4:T27" si="6">K4-R4</f>
+      <c r="S4" s="1">
+        <f t="shared" ref="S4:S27" si="7">K4-R4</f>
         <v>40545237.945847273</v>
       </c>
-      <c r="U4" s="13">
+      <c r="T4" s="13">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="V4" s="14">
+      <c r="U4" s="14">
         <f t="shared" si="2"/>
         <v>0.12302249284649952</v>
       </c>
-      <c r="W4" s="14">
-        <f>V4/SUMIFS(V:V,C:C,C4)</f>
+      <c r="V4" s="14">
+        <f>U4/SUMIFS(U:U,C:C,C4)</f>
         <v>8.5899895589420919E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A5" s="8" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="E5" s="9">
         <v>45735</v>
@@ -995,7 +993,7 @@
         <v>46232928</v>
       </c>
       <c r="L5" s="14">
-        <f>K5/SUMIFS(K:K,C:C,C5)</f>
+        <f t="shared" si="5"/>
         <v>0.26666666666666666</v>
       </c>
       <c r="M5" s="12">
@@ -1015,37 +1013,37 @@
         <v>356885.02263272728</v>
       </c>
       <c r="R5" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>11030616.628312729</v>
       </c>
-      <c r="T5" s="1">
-        <f t="shared" si="6"/>
+      <c r="S5" s="1">
+        <f t="shared" si="7"/>
         <v>35202311.371687271</v>
       </c>
-      <c r="U5" s="13">
+      <c r="T5" s="13">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="V5" s="14">
+      <c r="U5" s="14">
         <f t="shared" si="2"/>
         <v>0.23858788758334168</v>
       </c>
-      <c r="W5" s="14">
-        <f>V5/SUMIFS(V:V,C:C,C5)</f>
+      <c r="V5" s="14">
+        <f>U5/SUMIFS(U:U,C:C,C5)</f>
         <v>0.16659290637104579</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A6" s="8" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="B6" s="23" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="E6" s="9">
         <v>45735</v>
@@ -1072,7 +1070,7 @@
         <v>34674696</v>
       </c>
       <c r="L6" s="14">
-        <f>K6/SUMIFS(K:K,C:C,C6)</f>
+        <f t="shared" si="5"/>
         <v>0.2</v>
       </c>
       <c r="M6" s="12">
@@ -1092,37 +1090,37 @@
         <v>267663.76697454543</v>
       </c>
       <c r="R6" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>12291137.722254546</v>
       </c>
-      <c r="T6" s="1">
-        <f t="shared" si="6"/>
+      <c r="S6" s="1">
+        <f t="shared" si="7"/>
         <v>22383558.277745456</v>
       </c>
-      <c r="U6" s="13">
+      <c r="T6" s="13">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="V6" s="14">
+      <c r="U6" s="14">
         <f t="shared" si="2"/>
         <v>0.35446994898685041</v>
       </c>
-      <c r="W6" s="14">
-        <f>V6/SUMIFS(V:V,C:C,C6)</f>
+      <c r="V6" s="14">
+        <f>U6/SUMIFS(U:U,C:C,C6)</f>
         <v>0.24750702821109516</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A7" s="8" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="C7" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="8" t="s">
         <v>22</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>39</v>
       </c>
       <c r="E7" s="9">
         <v>45735</v>
@@ -1149,7 +1147,7 @@
         <v>11558232</v>
       </c>
       <c r="L7" s="14">
-        <f>K7/SUMIFS(K:K,C:C,C7)</f>
+        <f t="shared" si="5"/>
         <v>6.6666666666666666E-2</v>
       </c>
       <c r="M7" s="12">
@@ -1169,37 +1167,37 @@
         <v>89221.946940000009</v>
       </c>
       <c r="R7" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1421926.2464599998</v>
       </c>
-      <c r="T7" s="1">
-        <f t="shared" si="6"/>
+      <c r="S7" s="1">
+        <f t="shared" si="7"/>
         <v>10136305.75354</v>
       </c>
-      <c r="U7" s="13">
+      <c r="T7" s="13">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="V7" s="14">
+      <c r="U7" s="14">
         <f t="shared" si="2"/>
         <v>0.12302281581300668</v>
       </c>
-      <c r="W7" s="14">
-        <f>V7/SUMIFS(V:V,C:C,C7)</f>
+      <c r="V7" s="14">
+        <f>U7/SUMIFS(U:U,C:C,C7)</f>
         <v>8.5900121099314289E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A8" s="8" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="C8" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="8" t="s">
         <v>22</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>39</v>
       </c>
       <c r="E8" s="9">
         <v>45735</v>
@@ -1226,7 +1224,7 @@
         <v>11558232</v>
       </c>
       <c r="L8" s="14">
-        <f>K8/SUMIFS(K:K,C:C,C8)</f>
+        <f t="shared" si="5"/>
         <v>6.6666666666666666E-2</v>
       </c>
       <c r="M8" s="12">
@@ -1246,37 +1244,37 @@
         <v>89221.946940000009</v>
       </c>
       <c r="R8" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2757656.3691800004</v>
       </c>
-      <c r="T8" s="1">
-        <f t="shared" si="6"/>
+      <c r="S8" s="1">
+        <f t="shared" si="7"/>
         <v>8800575.6308199987</v>
       </c>
-      <c r="U8" s="13">
+      <c r="T8" s="13">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="V8" s="14">
+      <c r="U8" s="14">
         <f t="shared" si="2"/>
         <v>0.23858807897090148</v>
       </c>
-      <c r="W8" s="14">
-        <f>V8/SUMIFS(V:V,C:C,C8)</f>
+      <c r="V8" s="14">
+        <f>U8/SUMIFS(U:U,C:C,C8)</f>
         <v>0.16659304000653816</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A9" s="8" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="C9" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="8" t="s">
         <v>22</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>39</v>
       </c>
       <c r="E9" s="9">
         <v>45735</v>
@@ -1303,7 +1301,7 @@
         <v>23116464</v>
       </c>
       <c r="L9" s="14">
-        <f>K9/SUMIFS(K:K,C:C,C9)</f>
+        <f t="shared" si="5"/>
         <v>0.13333333333333333</v>
       </c>
       <c r="M9" s="12">
@@ -1323,34 +1321,34 @@
         <v>178443.89388000002</v>
       </c>
       <c r="R9" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>8194091.1696400009</v>
       </c>
-      <c r="T9" s="1">
-        <f t="shared" si="6"/>
+      <c r="S9" s="1">
+        <f t="shared" si="7"/>
         <v>14922372.830359999</v>
       </c>
-      <c r="U9" s="13">
+      <c r="T9" s="13">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="V9" s="14">
+      <c r="U9" s="14">
         <f t="shared" si="2"/>
         <v>0.35446992107616465</v>
       </c>
-      <c r="W9" s="14">
-        <f>V9/SUMIFS(V:V,C:C,C9)</f>
+      <c r="V9" s="14">
+        <f>U9/SUMIFS(U:U,C:C,C9)</f>
         <v>0.24750700872258588</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A10" s="8" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="E10" s="9">
         <v>45728</v>
@@ -1377,7 +1375,7 @@
         <v>3541499.85</v>
       </c>
       <c r="L10" s="14">
-        <f>K10/SUMIFS(K:K,C:C,C10)</f>
+        <f t="shared" si="5"/>
         <v>0.16308251289371889</v>
       </c>
       <c r="M10" s="12">
@@ -1397,34 +1395,34 @@
         <v>70829.997043488664</v>
       </c>
       <c r="R10" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>696490.10808354861</v>
       </c>
-      <c r="T10" s="1">
-        <f t="shared" si="6"/>
+      <c r="S10" s="1">
+        <f t="shared" si="7"/>
         <v>2845009.7419164516</v>
       </c>
-      <c r="U10" s="13">
+      <c r="T10" s="13">
         <v>2.5000000000000001E-2</v>
       </c>
+      <c r="U10" s="14">
+        <f t="shared" ref="U10:U27" si="8">R10/K10</f>
+        <v>0.1966652936844113</v>
+      </c>
       <c r="V10" s="14">
-        <f t="shared" ref="V10:V27" si="7">R10/K10</f>
-        <v>0.1966652936844113</v>
-      </c>
-      <c r="W10" s="14">
-        <f>V10/SUMIFS(V:V,C:C,C10)</f>
+        <f>U10/SUMIFS(U:U,C:C,C10)</f>
         <v>6.4826717446508933E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A11" s="8" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="E11" s="9">
         <v>45728</v>
@@ -1451,7 +1449,7 @@
         <v>3081749.87</v>
       </c>
       <c r="L11" s="14">
-        <f>K11/SUMIFS(K:K,C:C,C11)</f>
+        <f t="shared" si="5"/>
         <v>0.14191148784306501</v>
       </c>
       <c r="M11" s="12">
@@ -1471,34 +1469,34 @@
         <v>61634.997437843063</v>
       </c>
       <c r="R11" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>531752.97076575737</v>
       </c>
-      <c r="T11" s="1">
-        <f t="shared" si="6"/>
+      <c r="S11" s="1">
+        <f t="shared" si="7"/>
         <v>2549996.8992342427</v>
       </c>
-      <c r="U11" s="13">
+      <c r="T11" s="13">
         <v>2.5000000000000001E-2</v>
       </c>
+      <c r="U11" s="14">
+        <f t="shared" si="8"/>
+        <v>0.17254903648807726</v>
+      </c>
       <c r="V11" s="14">
-        <f t="shared" si="7"/>
-        <v>0.17254903648807726</v>
-      </c>
-      <c r="W11" s="14">
-        <f>V11/SUMIFS(V:V,C:C,C11)</f>
+        <f>U11/SUMIFS(U:U,C:C,C11)</f>
         <v>5.6877283350410431E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A12" s="8" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="E12" s="9">
         <v>45728</v>
@@ -1525,7 +1523,7 @@
         <v>2775749.88</v>
       </c>
       <c r="L12" s="14">
-        <f>K12/SUMIFS(K:K,C:C,C12)</f>
+        <f t="shared" si="5"/>
         <v>0.12782049548719834</v>
       </c>
       <c r="M12" s="12">
@@ -1545,34 +1543,34 @@
         <v>55514.997634085456</v>
       </c>
       <c r="R12" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>183366.31929084248</v>
       </c>
-      <c r="T12" s="1">
-        <f t="shared" si="6"/>
+      <c r="S12" s="1">
+        <f t="shared" si="7"/>
         <v>2592383.5607091575</v>
       </c>
-      <c r="U12" s="13">
+      <c r="T12" s="13">
         <v>2.5000000000000001E-2</v>
       </c>
+      <c r="U12" s="14">
+        <f t="shared" si="8"/>
+        <v>6.6060101672720778E-2</v>
+      </c>
       <c r="V12" s="14">
-        <f t="shared" si="7"/>
-        <v>6.6060101672720778E-2</v>
-      </c>
-      <c r="W12" s="14">
-        <f>V12/SUMIFS(V:V,C:C,C12)</f>
+        <f>U12/SUMIFS(U:U,C:C,C12)</f>
         <v>2.1775370048246451E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A13" s="8" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="E13" s="9">
         <v>45728</v>
@@ -1599,7 +1597,7 @@
         <v>2546999.89</v>
       </c>
       <c r="L13" s="14">
-        <f>K13/SUMIFS(K:K,C:C,C13)</f>
+        <f t="shared" si="5"/>
         <v>0.11728678808251979</v>
       </c>
       <c r="M13" s="12">
@@ -1619,34 +1617,34 @@
         <v>50939.997831276472</v>
       </c>
       <c r="R13" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>239668.15112425652</v>
       </c>
-      <c r="T13" s="1">
-        <f t="shared" si="6"/>
+      <c r="S13" s="1">
+        <f t="shared" si="7"/>
         <v>2307331.7388757435</v>
       </c>
-      <c r="U13" s="13">
+      <c r="T13" s="13">
         <v>2.5000000000000001E-2</v>
       </c>
+      <c r="U13" s="14">
+        <f t="shared" si="8"/>
+        <v>9.4098218089933447E-2</v>
+      </c>
       <c r="V13" s="14">
-        <f t="shared" si="7"/>
-        <v>9.4098218089933447E-2</v>
-      </c>
-      <c r="W13" s="14">
-        <f>V13/SUMIFS(V:V,C:C,C13)</f>
+        <f>U13/SUMIFS(U:U,C:C,C13)</f>
         <v>3.1017565336794423E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A14" s="8" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="E14" s="9">
         <v>45728</v>
@@ -1673,7 +1671,7 @@
         <v>1180500.1499999999</v>
       </c>
       <c r="L14" s="14">
-        <f>K14/SUMIFS(K:K,C:C,C14)</f>
+        <f t="shared" si="5"/>
         <v>5.4360846841038854E-2</v>
       </c>
       <c r="M14" s="12">
@@ -1693,34 +1691,34 @@
         <v>23610.002956511325</v>
       </c>
       <c r="R14" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>224634.49295651133</v>
       </c>
-      <c r="T14" s="1">
-        <f t="shared" si="6"/>
+      <c r="S14" s="1">
+        <f t="shared" si="7"/>
         <v>955865.65704348858</v>
       </c>
-      <c r="U14" s="13">
+      <c r="T14" s="13">
         <v>2.5000000000000001E-2</v>
       </c>
+      <c r="U14" s="14">
+        <f t="shared" si="8"/>
+        <v>0.19028755985885418</v>
+      </c>
       <c r="V14" s="14">
-        <f t="shared" si="7"/>
-        <v>0.19028755985885418</v>
-      </c>
-      <c r="W14" s="14">
-        <f>V14/SUMIFS(V:V,C:C,C14)</f>
+        <f>U14/SUMIFS(U:U,C:C,C14)</f>
         <v>6.272442709871684E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A15" s="8" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="E15" s="9">
         <v>45728</v>
@@ -1747,7 +1745,7 @@
         <v>1148999.95</v>
       </c>
       <c r="L15" s="14">
-        <f>K15/SUMIFS(K:K,C:C,C15)</f>
+        <f t="shared" si="5"/>
         <v>5.2910294253085272E-2</v>
       </c>
       <c r="M15" s="12">
@@ -1767,34 +1765,34 @@
         <v>22979.999014109409</v>
       </c>
       <c r="R15" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>279903.27420207317</v>
       </c>
-      <c r="T15" s="1">
-        <f t="shared" si="6"/>
+      <c r="S15" s="1">
+        <f t="shared" si="7"/>
         <v>869096.67579792673</v>
       </c>
-      <c r="U15" s="13">
+      <c r="T15" s="13">
         <v>2.5000000000000001E-2</v>
       </c>
+      <c r="U15" s="14">
+        <f t="shared" si="8"/>
+        <v>0.24360599337021135</v>
+      </c>
       <c r="V15" s="14">
-        <f t="shared" si="7"/>
-        <v>0.24360599337021135</v>
-      </c>
-      <c r="W15" s="14">
-        <f>V15/SUMIFS(V:V,C:C,C15)</f>
+        <f>U15/SUMIFS(U:U,C:C,C15)</f>
         <v>8.0299765172743287E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A16" s="8" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="E16" s="9">
         <v>45728</v>
@@ -1821,7 +1819,7 @@
         <v>1091999.95</v>
       </c>
       <c r="L16" s="14">
-        <f>K16/SUMIFS(K:K,C:C,C16)</f>
+        <f t="shared" si="5"/>
         <v>5.0285501473567869E-2</v>
       </c>
       <c r="M16" s="12">
@@ -1841,34 +1839,34 @@
         <v>21839.999013409462</v>
       </c>
       <c r="R16" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>160400.12081737674</v>
       </c>
-      <c r="T16" s="1">
-        <f t="shared" si="6"/>
+      <c r="S16" s="1">
+        <f t="shared" si="7"/>
         <v>931599.82918262319</v>
       </c>
-      <c r="U16" s="13">
+      <c r="T16" s="13">
         <v>2.5000000000000001E-2</v>
       </c>
+      <c r="U16" s="14">
+        <f t="shared" si="8"/>
+        <v>0.14688656425064556</v>
+      </c>
       <c r="V16" s="14">
-        <f t="shared" si="7"/>
-        <v>0.14688656425064556</v>
-      </c>
-      <c r="W16" s="14">
-        <f>V16/SUMIFS(V:V,C:C,C16)</f>
+        <f>U16/SUMIFS(U:U,C:C,C16)</f>
         <v>4.8418170888073965E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A17" s="8" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="E17" s="9">
         <v>45728</v>
@@ -1895,7 +1893,7 @@
         <v>1027250.13</v>
       </c>
       <c r="L17" s="14">
-        <f>K17/SUMIFS(K:K,C:C,C17)</f>
+        <f t="shared" si="5"/>
         <v>4.7303837262847662E-2</v>
       </c>
       <c r="M17" s="12">
@@ -1915,34 +1913,34 @@
         <v>20545.002562156933</v>
       </c>
       <c r="R17" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>174088.50256215694</v>
       </c>
-      <c r="T17" s="1">
-        <f t="shared" si="6"/>
+      <c r="S17" s="1">
+        <f t="shared" si="7"/>
         <v>853161.62743784301</v>
       </c>
-      <c r="U17" s="13">
+      <c r="T17" s="13">
         <v>2.5000000000000001E-2</v>
       </c>
+      <c r="U17" s="14">
+        <f t="shared" si="8"/>
+        <v>0.16947041180920264</v>
+      </c>
       <c r="V17" s="14">
-        <f t="shared" si="7"/>
-        <v>0.16947041180920264</v>
-      </c>
-      <c r="W17" s="14">
-        <f>V17/SUMIFS(V:V,C:C,C17)</f>
+        <f>U17/SUMIFS(U:U,C:C,C17)</f>
         <v>5.5862477288586856E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A18" s="8" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="E18" s="9">
         <v>45728</v>
@@ -1969,7 +1967,7 @@
         <v>983249.96</v>
       </c>
       <c r="L18" s="14">
-        <f>K18/SUMIFS(K:K,C:C,C18)</f>
+        <f t="shared" si="5"/>
         <v>4.5277673604715407E-2</v>
       </c>
       <c r="M18" s="12">
@@ -1989,34 +1987,34 @@
         <v>19664.999212074043</v>
       </c>
       <c r="R18" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>118429.49040548265</v>
       </c>
-      <c r="T18" s="1">
-        <f t="shared" si="6"/>
+      <c r="S18" s="1">
+        <f t="shared" si="7"/>
         <v>864820.46959451726</v>
       </c>
-      <c r="U18" s="13">
+      <c r="T18" s="13">
         <v>2.5000000000000001E-2</v>
       </c>
+      <c r="U18" s="14">
+        <f t="shared" si="8"/>
+        <v>0.12044698217478966</v>
+      </c>
       <c r="V18" s="14">
-        <f t="shared" si="7"/>
-        <v>0.12044698217478966</v>
-      </c>
-      <c r="W18" s="14">
-        <f>V18/SUMIFS(V:V,C:C,C18)</f>
+        <f>U18/SUMIFS(U:U,C:C,C18)</f>
         <v>3.9702899959865687E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A19" s="8" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="E19" s="9">
         <v>45728</v>
@@ -2043,7 +2041,7 @@
         <v>925250.12</v>
       </c>
       <c r="L19" s="14">
-        <f>K19/SUMIFS(K:K,C:C,C19)</f>
+        <f t="shared" si="5"/>
         <v>4.2606839196905499E-2</v>
       </c>
       <c r="M19" s="12">
@@ -2063,34 +2061,34 @@
         <v>18505.002365914534</v>
       </c>
       <c r="R19" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>72647.032365914536</v>
       </c>
-      <c r="T19" s="1">
-        <f t="shared" si="6"/>
+      <c r="S19" s="1">
+        <f t="shared" si="7"/>
         <v>852603.08763408544</v>
       </c>
-      <c r="U19" s="13">
+      <c r="T19" s="13">
         <v>2.5000000000000001E-2</v>
       </c>
+      <c r="U19" s="14">
+        <f t="shared" si="8"/>
+        <v>7.8516101533620486E-2</v>
+      </c>
       <c r="V19" s="14">
-        <f t="shared" si="7"/>
-        <v>7.8516101533620486E-2</v>
-      </c>
-      <c r="W19" s="14">
-        <f>V19/SUMIFS(V:V,C:C,C19)</f>
+        <f>U19/SUMIFS(U:U,C:C,C19)</f>
         <v>2.5881237272547174E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A20" s="8" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="E20" s="9">
         <v>45728</v>
@@ -2117,7 +2115,7 @@
         <v>849000.11</v>
       </c>
       <c r="L20" s="14">
-        <f>K20/SUMIFS(K:K,C:C,C20)</f>
+        <f t="shared" si="5"/>
         <v>3.9095602781359359E-2</v>
       </c>
       <c r="M20" s="12">
@@ -2137,34 +2135,34 @@
         <v>16980.00216872352</v>
       </c>
       <c r="R20" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>86867.752168723528</v>
       </c>
-      <c r="T20" s="1">
-        <f t="shared" si="6"/>
+      <c r="S20" s="1">
+        <f t="shared" si="7"/>
         <v>762132.35783127649</v>
       </c>
-      <c r="U20" s="13">
+      <c r="T20" s="13">
         <v>2.5000000000000001E-2</v>
       </c>
+      <c r="U20" s="14">
+        <f t="shared" si="8"/>
+        <v>0.10231771603507039</v>
+      </c>
       <c r="V20" s="14">
-        <f t="shared" si="7"/>
-        <v>0.10231771603507039</v>
-      </c>
-      <c r="W20" s="14">
-        <f>V20/SUMIFS(V:V,C:C,C20)</f>
+        <f>U20/SUMIFS(U:U,C:C,C20)</f>
         <v>3.3726955798421103E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A21" s="8" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="E21" s="9">
         <v>45728</v>
@@ -2191,7 +2189,7 @@
         <v>579749.98</v>
       </c>
       <c r="L21" s="14">
-        <f>K21/SUMIFS(K:K,C:C,C21)</f>
+        <f t="shared" si="5"/>
         <v>2.6696904586480011E-2</v>
       </c>
       <c r="M21" s="12">
@@ -2211,34 +2209,34 @@
         <v>11594.999607119171</v>
       </c>
       <c r="R21" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>128046.29030273725</v>
       </c>
-      <c r="T21" s="1">
-        <f t="shared" si="6"/>
+      <c r="S21" s="1">
+        <f t="shared" si="7"/>
         <v>451703.68969726271</v>
       </c>
-      <c r="U21" s="13">
+      <c r="T21" s="13">
         <v>2.5000000000000001E-2</v>
       </c>
+      <c r="U21" s="14">
+        <f t="shared" si="8"/>
+        <v>0.22086467394571924</v>
+      </c>
       <c r="V21" s="14">
-        <f t="shared" si="7"/>
-        <v>0.22086467394571924</v>
-      </c>
-      <c r="W21" s="14">
-        <f>V21/SUMIFS(V:V,C:C,C21)</f>
+        <f>U21/SUMIFS(U:U,C:C,C21)</f>
         <v>7.2803551371755718E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A22" s="8" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="E22" s="9">
         <v>45728</v>
@@ -2265,7 +2263,7 @@
         <v>537000.66</v>
       </c>
       <c r="L22" s="14">
-        <f>K22/SUMIFS(K:K,C:C,C22)</f>
+        <f t="shared" si="5"/>
         <v>2.4728341315159327E-2</v>
       </c>
       <c r="M22" s="12">
@@ -2285,34 +2283,34 @@
         <v>10740.013206594225</v>
       </c>
       <c r="R22" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>143070.77500787028</v>
       </c>
-      <c r="T22" s="1">
-        <f t="shared" si="6"/>
+      <c r="S22" s="1">
+        <f t="shared" si="7"/>
         <v>393929.88499212975</v>
       </c>
-      <c r="U22" s="13">
+      <c r="T22" s="13">
         <v>2.5000000000000001E-2</v>
       </c>
+      <c r="U22" s="14">
+        <f t="shared" si="8"/>
+        <v>0.26642569677264505</v>
+      </c>
       <c r="V22" s="14">
-        <f t="shared" si="7"/>
-        <v>0.26642569677264505</v>
-      </c>
-      <c r="W22" s="14">
-        <f>V22/SUMIFS(V:V,C:C,C22)</f>
+        <f>U22/SUMIFS(U:U,C:C,C22)</f>
         <v>8.7821816659146276E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A23" s="8" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="E23" s="9">
         <v>45728</v>
@@ -2339,7 +2337,7 @@
         <v>383000.05</v>
       </c>
       <c r="L23" s="14">
-        <f>K23/SUMIFS(K:K,C:C,C23)</f>
+        <f t="shared" si="5"/>
         <v>1.7636767820961498E-2</v>
       </c>
       <c r="M23" s="12">
@@ -2359,34 +2357,34 @@
         <v>7660.0009858905878</v>
       </c>
       <c r="R23" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>88495.120985890579</v>
       </c>
-      <c r="T23" s="1">
-        <f t="shared" si="6"/>
+      <c r="S23" s="1">
+        <f t="shared" si="7"/>
         <v>294504.92901410942</v>
       </c>
-      <c r="U23" s="13">
+      <c r="T23" s="13">
         <v>2.5000000000000001E-2</v>
       </c>
+      <c r="U23" s="14">
+        <f t="shared" si="8"/>
+        <v>0.23105772697912333</v>
+      </c>
       <c r="V23" s="14">
-        <f t="shared" si="7"/>
-        <v>0.23105772697912333</v>
-      </c>
-      <c r="W23" s="14">
-        <f>V23/SUMIFS(V:V,C:C,C23)</f>
+        <f>U23/SUMIFS(U:U,C:C,C23)</f>
         <v>7.6163484161799119E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A24" s="8" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="E24" s="9">
         <v>45728</v>
@@ -2413,7 +2411,7 @@
         <v>364000.05</v>
       </c>
       <c r="L24" s="14">
-        <f>K24/SUMIFS(K:K,C:C,C24)</f>
+        <f t="shared" si="5"/>
         <v>1.6761836894455699E-2</v>
       </c>
       <c r="M24" s="12">
@@ -2433,34 +2431,34 @@
         <v>7280.0009865905322</v>
       </c>
       <c r="R24" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>53657.430986590531</v>
       </c>
-      <c r="T24" s="1">
-        <f t="shared" si="6"/>
+      <c r="S24" s="1">
+        <f t="shared" si="7"/>
         <v>310342.61901340948</v>
       </c>
-      <c r="U24" s="13">
+      <c r="T24" s="13">
         <v>2.5000000000000001E-2</v>
       </c>
+      <c r="U24" s="14">
+        <f t="shared" si="8"/>
+        <v>0.14741050443973985</v>
+      </c>
       <c r="V24" s="14">
-        <f t="shared" si="7"/>
-        <v>0.14741050443973985</v>
-      </c>
-      <c r="W24" s="14">
-        <f>V24/SUMIFS(V:V,C:C,C24)</f>
+        <f>U24/SUMIFS(U:U,C:C,C24)</f>
         <v>4.8590877123937781E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A25" s="8" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="E25" s="9">
         <v>45728</v>
@@ -2487,7 +2485,7 @@
         <v>327750.03999999998</v>
       </c>
       <c r="L25" s="14">
-        <f>K25/SUMIFS(K:K,C:C,C25)</f>
+        <f t="shared" si="5"/>
         <v>1.5092560324184929E-2</v>
       </c>
       <c r="M25" s="12">
@@ -2507,34 +2505,34 @@
         <v>6555.0007879259529</v>
       </c>
       <c r="R25" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>40896.14078792595</v>
       </c>
-      <c r="T25" s="1">
-        <f t="shared" si="6"/>
+      <c r="S25" s="1">
+        <f t="shared" si="7"/>
         <v>286853.899212074</v>
       </c>
-      <c r="U25" s="13">
+      <c r="T25" s="13">
         <v>2.5000000000000001E-2</v>
       </c>
+      <c r="U25" s="14">
+        <f t="shared" si="8"/>
+        <v>0.12477844636701174</v>
+      </c>
       <c r="V25" s="14">
-        <f t="shared" si="7"/>
-        <v>0.12477844636701174</v>
-      </c>
-      <c r="W25" s="14">
-        <f>V25/SUMIFS(V:V,C:C,C25)</f>
+        <f>U25/SUMIFS(U:U,C:C,C25)</f>
         <v>4.1130679107158667E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A26" s="8" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="E26" s="9">
         <v>45728</v>
@@ -2561,7 +2559,7 @@
         <v>193250.02</v>
       </c>
       <c r="L26" s="14">
-        <f>K26/SUMIFS(K:K,C:C,C26)</f>
+        <f t="shared" si="5"/>
         <v>8.898969423466567E-3</v>
       </c>
       <c r="M26" s="12">
@@ -2581,34 +2579,34 @@
         <v>3865.0003928808255</v>
       </c>
       <c r="R26" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>40826.670392880827</v>
       </c>
-      <c r="T26" s="1">
-        <f t="shared" si="6"/>
+      <c r="S26" s="1">
+        <f t="shared" si="7"/>
         <v>152423.34960711916</v>
       </c>
-      <c r="U26" s="13">
+      <c r="T26" s="13">
         <v>2.5000000000000001E-2</v>
       </c>
+      <c r="U26" s="14">
+        <f t="shared" si="8"/>
+        <v>0.2112634730536164</v>
+      </c>
       <c r="V26" s="14">
-        <f t="shared" si="7"/>
-        <v>0.2112634730536164</v>
-      </c>
-      <c r="W26" s="14">
-        <f>V26/SUMIFS(V:V,C:C,C26)</f>
+        <f>U26/SUMIFS(U:U,C:C,C26)</f>
         <v>6.9638710612519833E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A27" s="8" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="E27" s="9">
         <v>45728</v>
@@ -2635,7 +2633,7 @@
         <v>178999.34</v>
       </c>
       <c r="L27" s="14">
-        <f>K27/SUMIFS(K:K,C:C,C27)</f>
+        <f t="shared" si="5"/>
         <v>8.242739915269845E-3</v>
       </c>
       <c r="M27" s="12">
@@ -2655,31 +2653,31 @@
         <v>3579.9867934058084</v>
       </c>
       <c r="R27" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44929.356793405808</v>
       </c>
-      <c r="T27" s="1">
-        <f t="shared" si="6"/>
+      <c r="S27" s="1">
+        <f t="shared" si="7"/>
         <v>134069.98320659419</v>
       </c>
-      <c r="U27" s="13">
+      <c r="T27" s="13">
         <v>2.5000000000000001E-2</v>
       </c>
+      <c r="U27" s="14">
+        <f t="shared" si="8"/>
+        <v>0.25100291874487252</v>
+      </c>
       <c r="V27" s="14">
-        <f t="shared" si="7"/>
-        <v>0.25100291874487252</v>
-      </c>
-      <c r="W27" s="14">
-        <f>V27/SUMIFS(V:V,C:C,C27)</f>
+        <f>U27/SUMIFS(U:U,C:C,C27)</f>
         <v>8.2738011302767395E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.4">
       <c r="B28" s="8" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="E28" s="9">
         <v>45667</v>
@@ -2689,7 +2687,7 @@
         <v>1</v>
       </c>
       <c r="G28" s="9">
-        <f t="shared" ref="G28:G42" si="8">E28+H28</f>
+        <f t="shared" ref="G28:G42" si="9">E28+H28</f>
         <v>45720</v>
       </c>
       <c r="H28" s="8">
@@ -2706,7 +2704,7 @@
         <v>1384856.87</v>
       </c>
       <c r="L28" s="14">
-        <f>K28/SUMIFS(K:K,C:C,C28)</f>
+        <f t="shared" si="5"/>
         <v>0.19095275531821398</v>
       </c>
       <c r="M28" s="12">
@@ -2726,31 +2724,31 @@
         <v>0</v>
       </c>
       <c r="R28" s="1">
-        <f t="shared" ref="R28:R46" si="9">SUM(N28:Q28)</f>
+        <f t="shared" ref="R28:R46" si="10">SUM(N28:Q28)</f>
         <v>32011.71</v>
       </c>
-      <c r="T28" s="1">
-        <f t="shared" ref="T28:T46" si="10">K28-R28</f>
+      <c r="S28" s="1">
+        <f t="shared" ref="S28:S46" si="11">K28-R28</f>
         <v>1352845.1600000001</v>
       </c>
-      <c r="U28" s="13">
+      <c r="T28" s="13">
         <v>1.34E-2</v>
       </c>
-      <c r="V28" s="15">
-        <f t="shared" ref="V28:V46" si="11">R28/K28</f>
+      <c r="U28" s="15">
+        <f t="shared" ref="U28:U46" si="12">R28/K28</f>
         <v>2.3115536842446393E-2</v>
       </c>
-      <c r="W28" s="14">
-        <f>V28/SUMIFS(V:V,C:C,C28)</f>
+      <c r="V28" s="14">
+        <f>U28/SUMIFS(U:U,C:C,C28)</f>
         <v>5.5314612542241619E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.4">
       <c r="B29" s="8" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="E29" s="9">
         <v>45667</v>
@@ -2760,7 +2758,7 @@
         <v>1</v>
       </c>
       <c r="G29" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>45717</v>
       </c>
       <c r="H29" s="8">
@@ -2777,7 +2775,7 @@
         <v>877614.45</v>
       </c>
       <c r="L29" s="14">
-        <f>K29/SUMIFS(K:K,C:C,C29)</f>
+        <f t="shared" si="5"/>
         <v>0.12101098746369285</v>
       </c>
       <c r="M29" s="12">
@@ -2797,31 +2795,31 @@
         <v>0</v>
       </c>
       <c r="R29" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>19104.900000000001</v>
       </c>
-      <c r="T29" s="1">
-        <f t="shared" si="10"/>
+      <c r="S29" s="1">
+        <f t="shared" si="11"/>
         <v>858509.54999999993</v>
       </c>
-      <c r="U29" s="13">
+      <c r="T29" s="13">
         <v>1.34E-2</v>
       </c>
-      <c r="V29" s="15">
-        <f t="shared" si="11"/>
+      <c r="U29" s="15">
+        <f t="shared" si="12"/>
         <v>2.1769126522472371E-2</v>
       </c>
-      <c r="W29" s="14">
-        <f>V29/SUMIFS(V:V,C:C,C29)</f>
+      <c r="V29" s="14">
+        <f>U29/SUMIFS(U:U,C:C,C29)</f>
         <v>5.2092703153770042E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.4">
       <c r="B30" s="8" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="E30" s="9">
         <v>45667</v>
@@ -2831,7 +2829,7 @@
         <v>1</v>
       </c>
       <c r="G30" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>45784</v>
       </c>
       <c r="H30" s="8">
@@ -2848,7 +2846,7 @@
         <v>780867.32</v>
       </c>
       <c r="L30" s="14">
-        <f>K30/SUMIFS(K:K,C:C,C30)</f>
+        <f t="shared" si="5"/>
         <v>0.107670886083664</v>
       </c>
       <c r="M30" s="12">
@@ -2868,41 +2866,41 @@
         <v>0</v>
       </c>
       <c r="R30" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>38254.559999999939</v>
       </c>
-      <c r="T30" s="1">
-        <f t="shared" si="10"/>
+      <c r="S30" s="1">
+        <f t="shared" si="11"/>
         <v>742612.76</v>
       </c>
-      <c r="U30" s="13">
+      <c r="T30" s="13">
         <v>1.34E-2</v>
       </c>
-      <c r="V30" s="15">
-        <f t="shared" si="11"/>
+      <c r="U30" s="15">
+        <f t="shared" si="12"/>
         <v>4.8989833509743938E-2</v>
       </c>
-      <c r="W30" s="14">
-        <f>V30/SUMIFS(V:V,C:C,C30)</f>
+      <c r="V30" s="14">
+        <f>U30/SUMIFS(U:U,C:C,C30)</f>
         <v>0.1172308338573554</v>
       </c>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.4">
       <c r="B31" s="8" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="E31" s="9">
         <v>45726</v>
       </c>
       <c r="F31" s="8">
-        <f t="shared" ref="F31" si="12">MONTH(E31)</f>
+        <f t="shared" ref="F31" si="13">MONTH(E31)</f>
         <v>3</v>
       </c>
       <c r="G31" s="9">
-        <f t="shared" ref="G31" si="13">E31+H31</f>
+        <f t="shared" ref="G31" si="14">E31+H31</f>
         <v>45794</v>
       </c>
       <c r="H31" s="8">
@@ -2919,7 +2917,7 @@
         <v>739061.87</v>
       </c>
       <c r="L31" s="14">
-        <f>K31/SUMIFS(K:K,C:C,C31)</f>
+        <f t="shared" si="5"/>
         <v>0.10190648830527278</v>
       </c>
       <c r="M31" s="12">
@@ -2939,31 +2937,31 @@
         <v>0</v>
       </c>
       <c r="R31" s="1">
-        <f t="shared" ref="R31" si="14">SUM(N31:Q31)</f>
+        <f t="shared" ref="R31" si="15">SUM(N31:Q31)</f>
         <v>22598.130000000005</v>
       </c>
-      <c r="T31" s="1">
-        <f t="shared" ref="T31" si="15">K31-R31</f>
+      <c r="S31" s="1">
+        <f t="shared" ref="S31" si="16">K31-R31</f>
         <v>716463.74</v>
       </c>
-      <c r="U31" s="13">
+      <c r="T31" s="13">
         <v>1.34E-2</v>
       </c>
-      <c r="V31" s="15">
-        <f t="shared" ref="V31" si="16">R31/K31</f>
+      <c r="U31" s="15">
+        <f t="shared" ref="U31" si="17">R31/K31</f>
         <v>3.0576777015975679E-2</v>
       </c>
-      <c r="W31" s="14">
-        <f>V31/SUMIFS(V:V,C:C,C31)</f>
+      <c r="V31" s="14">
+        <f>U31/SUMIFS(U:U,C:C,C31)</f>
         <v>7.3169080387674584E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.4">
       <c r="B32" s="8" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="E32" s="9">
         <v>45667</v>
@@ -2973,7 +2971,7 @@
         <v>1</v>
       </c>
       <c r="G32" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>45732</v>
       </c>
       <c r="H32" s="8">
@@ -2990,7 +2988,7 @@
         <v>570267.34</v>
       </c>
       <c r="L32" s="14">
-        <f>K32/SUMIFS(K:K,C:C,C32)</f>
+        <f t="shared" si="5"/>
         <v>7.8632039310307017E-2</v>
       </c>
       <c r="M32" s="12">
@@ -3010,31 +3008,31 @@
         <v>0</v>
       </c>
       <c r="R32" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>16056.07</v>
       </c>
-      <c r="T32" s="1">
-        <f t="shared" si="10"/>
+      <c r="S32" s="1">
+        <f t="shared" si="11"/>
         <v>554211.27</v>
       </c>
-      <c r="U32" s="13">
+      <c r="T32" s="13">
         <v>1.34E-2</v>
       </c>
-      <c r="V32" s="15">
-        <f t="shared" si="11"/>
+      <c r="U32" s="15">
+        <f t="shared" si="12"/>
         <v>2.815533851193372E-2</v>
       </c>
-      <c r="W32" s="14">
-        <f>V32/SUMIFS(V:V,C:C,C32)</f>
+      <c r="V32" s="14">
+        <f>U32/SUMIFS(U:U,C:C,C32)</f>
         <v>6.7374668881730479E-2</v>
       </c>
     </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.4">
       <c r="B33" s="8" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="E33" s="9">
         <v>45715</v>
@@ -3044,7 +3042,7 @@
         <v>2</v>
       </c>
       <c r="G33" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>45766</v>
       </c>
       <c r="H33" s="8">
@@ -3061,7 +3059,7 @@
         <v>451431.61</v>
       </c>
       <c r="L33" s="14">
-        <f>K33/SUMIFS(K:K,C:C,C33)</f>
+        <f t="shared" si="5"/>
         <v>6.2246223154626364E-2</v>
       </c>
       <c r="M33" s="12">
@@ -3081,31 +3079,31 @@
         <v>0</v>
       </c>
       <c r="R33" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>10293.67</v>
       </c>
-      <c r="T33" s="1">
-        <f t="shared" si="10"/>
+      <c r="S33" s="1">
+        <f t="shared" si="11"/>
         <v>441137.94</v>
       </c>
-      <c r="U33" s="13">
+      <c r="T33" s="13">
         <v>1.34E-2</v>
       </c>
-      <c r="V33" s="15">
-        <f t="shared" si="11"/>
+      <c r="U33" s="15">
+        <f t="shared" si="12"/>
         <v>2.2802280061868064E-2</v>
       </c>
-      <c r="W33" s="14">
-        <f>V33/SUMIFS(V:V,C:C,C33)</f>
+      <c r="V33" s="14">
+        <f>U33/SUMIFS(U:U,C:C,C33)</f>
         <v>5.4565000817364782E-2</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.4">
       <c r="B34" s="8" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="E34" s="9">
         <v>45685</v>
@@ -3115,7 +3113,7 @@
         <v>1</v>
       </c>
       <c r="G34" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>45740</v>
       </c>
       <c r="H34" s="8">
@@ -3132,7 +3130,7 @@
         <v>439850.88</v>
       </c>
       <c r="L34" s="14">
-        <f>K34/SUMIFS(K:K,C:C,C34)</f>
+        <f t="shared" si="5"/>
         <v>6.0649399432261254E-2</v>
       </c>
       <c r="M34" s="12">
@@ -3152,31 +3150,31 @@
         <v>0</v>
       </c>
       <c r="R34" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>10574.16</v>
       </c>
-      <c r="T34" s="1">
-        <f t="shared" si="10"/>
+      <c r="S34" s="1">
+        <f t="shared" si="11"/>
         <v>429276.72000000003</v>
       </c>
-      <c r="U34" s="13">
+      <c r="T34" s="13">
         <v>1.34E-2</v>
       </c>
-      <c r="V34" s="15">
-        <f t="shared" si="11"/>
+      <c r="U34" s="15">
+        <f t="shared" si="12"/>
         <v>2.4040329304331504E-2</v>
       </c>
-      <c r="W34" s="14">
-        <f>V34/SUMIFS(V:V,C:C,C34)</f>
+      <c r="V34" s="14">
+        <f>U34/SUMIFS(U:U,C:C,C34)</f>
         <v>5.7527606212249185E-2</v>
       </c>
     </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:22" x14ac:dyDescent="0.4">
       <c r="B35" s="8" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="E35" s="9">
         <v>45685</v>
@@ -3186,7 +3184,7 @@
         <v>1</v>
       </c>
       <c r="G35" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>45754</v>
       </c>
       <c r="H35" s="8">
@@ -3203,7 +3201,7 @@
         <v>409993.31</v>
       </c>
       <c r="L35" s="14">
-        <f>K35/SUMIFS(K:K,C:C,C35)</f>
+        <f t="shared" si="5"/>
         <v>5.6532450322129425E-2</v>
       </c>
       <c r="M35" s="12">
@@ -3223,31 +3221,31 @@
         <v>0</v>
       </c>
       <c r="R35" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>12220.03</v>
       </c>
-      <c r="T35" s="1">
-        <f t="shared" si="10"/>
+      <c r="S35" s="1">
+        <f t="shared" si="11"/>
         <v>397773.27999999997</v>
       </c>
-      <c r="U35" s="13">
+      <c r="T35" s="13">
         <v>1.34E-2</v>
       </c>
-      <c r="V35" s="15">
-        <f t="shared" si="11"/>
+      <c r="U35" s="15">
+        <f t="shared" si="12"/>
         <v>2.98054375570177E-2</v>
       </c>
-      <c r="W35" s="14">
-        <f>V35/SUMIFS(V:V,C:C,C35)</f>
+      <c r="V35" s="14">
+        <f>U35/SUMIFS(U:U,C:C,C35)</f>
         <v>7.1323293997264822E-2</v>
       </c>
     </row>
-    <row r="36" spans="2:23" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:22" x14ac:dyDescent="0.4">
       <c r="B36" s="8" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="E36" s="9">
         <v>45716</v>
@@ -3257,7 +3255,7 @@
         <v>2</v>
       </c>
       <c r="G36" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>45764</v>
       </c>
       <c r="H36" s="8">
@@ -3274,7 +3272,7 @@
         <v>354888.79</v>
       </c>
       <c r="L36" s="14">
-        <f>K36/SUMIFS(K:K,C:C,C36)</f>
+        <f t="shared" si="5"/>
         <v>4.8934293319458366E-2</v>
       </c>
       <c r="M36" s="12">
@@ -3294,31 +3292,31 @@
         <v>0</v>
       </c>
       <c r="R36" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>7677.1499999999651</v>
       </c>
-      <c r="T36" s="1">
-        <f t="shared" si="10"/>
+      <c r="S36" s="1">
+        <f t="shared" si="11"/>
         <v>347211.64</v>
       </c>
-      <c r="U36" s="13">
+      <c r="T36" s="13">
         <v>1.34E-2</v>
       </c>
-      <c r="V36" s="15">
-        <f t="shared" si="11"/>
+      <c r="U36" s="15">
+        <f t="shared" si="12"/>
         <v>2.1632551425476036E-2</v>
       </c>
-      <c r="W36" s="14">
-        <f>V36/SUMIFS(V:V,C:C,C36)</f>
+      <c r="V36" s="14">
+        <f>U36/SUMIFS(U:U,C:C,C36)</f>
         <v>5.1765884069932065E-2</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.4">
       <c r="B37" s="8" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="E37" s="9">
         <v>45685</v>
@@ -3328,7 +3326,7 @@
         <v>1</v>
       </c>
       <c r="G37" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>45763</v>
       </c>
       <c r="H37" s="8">
@@ -3345,7 +3343,7 @@
         <v>301642.96999999997</v>
       </c>
       <c r="L37" s="14">
-        <f>K37/SUMIFS(K:K,C:C,C37)</f>
+        <f t="shared" si="5"/>
         <v>4.1592425536271738E-2</v>
       </c>
       <c r="M37" s="12">
@@ -3365,31 +3363,31 @@
         <v>0</v>
       </c>
       <c r="R37" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>10042.17</v>
       </c>
-      <c r="T37" s="1">
-        <f t="shared" si="10"/>
+      <c r="S37" s="1">
+        <f t="shared" si="11"/>
         <v>291600.8</v>
       </c>
-      <c r="U37" s="13">
+      <c r="T37" s="13">
         <v>1.34E-2</v>
       </c>
-      <c r="V37" s="15">
-        <f t="shared" si="11"/>
+      <c r="U37" s="15">
+        <f t="shared" si="12"/>
         <v>3.3291576462067062E-2</v>
       </c>
-      <c r="W37" s="14">
-        <f>V37/SUMIFS(V:V,C:C,C37)</f>
+      <c r="V37" s="14">
+        <f>U37/SUMIFS(U:U,C:C,C37)</f>
         <v>7.9665493623238617E-2</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.4">
       <c r="B38" s="8" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="E38" s="9">
         <v>45715</v>
@@ -3399,7 +3397,7 @@
         <v>2</v>
       </c>
       <c r="G38" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>45789</v>
       </c>
       <c r="H38" s="8">
@@ -3416,7 +3414,7 @@
         <v>299967.94</v>
       </c>
       <c r="L38" s="14">
-        <f>K38/SUMIFS(K:K,C:C,C38)</f>
+        <f t="shared" si="5"/>
         <v>4.1361461888930584E-2</v>
       </c>
       <c r="M38" s="12">
@@ -3436,31 +3434,31 @@
         <v>0</v>
       </c>
       <c r="R38" s="18">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>10005.495107066876</v>
       </c>
-      <c r="T38" s="18">
-        <f t="shared" si="10"/>
+      <c r="S38" s="18">
+        <f t="shared" si="11"/>
         <v>289962.44489293313</v>
       </c>
-      <c r="U38" s="13">
+      <c r="T38" s="13">
         <v>1.34E-2</v>
       </c>
-      <c r="V38" s="15">
-        <f t="shared" si="11"/>
+      <c r="U38" s="15">
+        <f t="shared" si="12"/>
         <v>3.3355214917523773E-2</v>
       </c>
-      <c r="W38" s="14">
-        <f>V38/SUMIFS(V:V,C:C,C38)</f>
+      <c r="V38" s="14">
+        <f>U38/SUMIFS(U:U,C:C,C38)</f>
         <v>7.9817778059908542E-2</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.4">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.4">
       <c r="B39" s="8" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="E39" s="9">
         <v>45685</v>
@@ -3470,7 +3468,7 @@
         <v>1</v>
       </c>
       <c r="G39" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>45734</v>
       </c>
       <c r="H39" s="8">
@@ -3487,7 +3485,7 @@
         <v>226404.56</v>
       </c>
       <c r="L39" s="14">
-        <f>K39/SUMIFS(K:K,C:C,C39)</f>
+        <f t="shared" si="5"/>
         <v>3.1218081438703405E-2</v>
       </c>
       <c r="M39" s="12">
@@ -3507,31 +3505,31 @@
         <v>0</v>
       </c>
       <c r="R39" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>4808.84</v>
       </c>
-      <c r="T39" s="1">
-        <f t="shared" si="10"/>
+      <c r="S39" s="1">
+        <f t="shared" si="11"/>
         <v>221595.72</v>
       </c>
-      <c r="U39" s="13">
+      <c r="T39" s="13">
         <v>1.34E-2</v>
       </c>
-      <c r="V39" s="15">
-        <f t="shared" si="11"/>
+      <c r="U39" s="15">
+        <f t="shared" si="12"/>
         <v>2.1240031561201772E-2</v>
       </c>
-      <c r="W39" s="14">
-        <f>V39/SUMIFS(V:V,C:C,C39)</f>
+      <c r="V39" s="14">
+        <f>U39/SUMIFS(U:U,C:C,C39)</f>
         <v>5.0826598759127824E-2</v>
       </c>
     </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.4">
+    <row r="40" spans="2:22" x14ac:dyDescent="0.4">
       <c r="B40" s="8" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="E40" s="9">
         <v>45726</v>
@@ -3541,7 +3539,7 @@
         <v>3</v>
       </c>
       <c r="G40" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>45783</v>
       </c>
       <c r="H40" s="8">
@@ -3558,7 +3556,7 @@
         <v>169959.41</v>
       </c>
       <c r="L40" s="14">
-        <f>K40/SUMIFS(K:K,C:C,C40)</f>
+        <f t="shared" si="5"/>
         <v>2.3435069959076717E-2</v>
       </c>
       <c r="M40" s="12">
@@ -3578,31 +3576,31 @@
         <v>0</v>
       </c>
       <c r="R40" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>4376.7900000000081</v>
       </c>
-      <c r="T40" s="1">
-        <f t="shared" si="10"/>
+      <c r="S40" s="1">
+        <f t="shared" si="11"/>
         <v>165582.62</v>
       </c>
-      <c r="U40" s="13">
+      <c r="T40" s="13">
         <v>1.34E-2</v>
       </c>
-      <c r="V40" s="15">
-        <f t="shared" si="11"/>
+      <c r="U40" s="15">
+        <f t="shared" si="12"/>
         <v>2.5751972191478002E-2</v>
       </c>
-      <c r="W40" s="14">
-        <f>V40/SUMIFS(V:V,C:C,C40)</f>
+      <c r="V40" s="14">
+        <f>U40/SUMIFS(U:U,C:C,C40)</f>
         <v>6.1623503433175346E-2</v>
       </c>
     </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.4">
+    <row r="41" spans="2:22" x14ac:dyDescent="0.4">
       <c r="B41" s="8" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="E41" s="9">
         <v>45726</v>
@@ -3612,7 +3610,7 @@
         <v>3</v>
       </c>
       <c r="G41" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>45788</v>
       </c>
       <c r="H41" s="8">
@@ -3629,7 +3627,7 @@
         <v>134020.41</v>
       </c>
       <c r="L41" s="14">
-        <f>K41/SUMIFS(K:K,C:C,C41)</f>
+        <f t="shared" si="5"/>
         <v>1.8479575119107233E-2</v>
       </c>
       <c r="M41" s="12">
@@ -3649,31 +3647,31 @@
         <v>0</v>
       </c>
       <c r="R41" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>3751.4600000000064</v>
       </c>
-      <c r="T41" s="1">
-        <f t="shared" si="10"/>
+      <c r="S41" s="1">
+        <f t="shared" si="11"/>
         <v>130268.95</v>
       </c>
-      <c r="U41" s="13">
+      <c r="T41" s="13">
         <v>1.34E-2</v>
       </c>
-      <c r="V41" s="15">
-        <f t="shared" si="11"/>
+      <c r="U41" s="15">
+        <f t="shared" si="12"/>
         <v>2.7991706636325067E-2</v>
       </c>
-      <c r="W41" s="14">
-        <f>V41/SUMIFS(V:V,C:C,C41)</f>
+      <c r="V41" s="14">
+        <f>U41/SUMIFS(U:U,C:C,C41)</f>
         <v>6.6983103941640823E-2</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.4">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.4">
       <c r="B42" s="8" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="E42" s="9">
         <v>45726</v>
@@ -3683,7 +3681,7 @@
         <v>3</v>
       </c>
       <c r="G42" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>45782</v>
       </c>
       <c r="H42" s="8">
@@ -3700,7 +3698,7 @@
         <v>111525.69999999997</v>
       </c>
       <c r="L42" s="14">
-        <f>K42/SUMIFS(K:K,C:C,C42)</f>
+        <f t="shared" si="5"/>
         <v>1.5377863348284166E-2</v>
       </c>
       <c r="M42" s="12">
@@ -3720,34 +3718,34 @@
         <v>0</v>
       </c>
       <c r="R42" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2829.8907741333242</v>
       </c>
-      <c r="T42" s="1">
-        <f t="shared" si="10"/>
+      <c r="S42" s="1">
+        <f t="shared" si="11"/>
         <v>108695.80922586664</v>
       </c>
-      <c r="U42" s="13">
+      <c r="T42" s="13">
         <v>1.34E-2</v>
       </c>
-      <c r="V42" s="15">
-        <f t="shared" si="11"/>
+      <c r="U42" s="15">
+        <f t="shared" si="12"/>
         <v>2.537433770093642E-2</v>
       </c>
-      <c r="W42" s="14">
-        <f>V42/SUMIFS(V:V,C:C,C42)</f>
+      <c r="V42" s="14">
+        <f>U42/SUMIFS(U:U,C:C,C42)</f>
         <v>6.0719838263325727E-2</v>
       </c>
     </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.4">
+    <row r="43" spans="2:22" x14ac:dyDescent="0.4">
       <c r="B43" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D43" s="8" t="s">
         <v>19</v>
-      </c>
-      <c r="C43" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="D43" s="8" t="s">
-        <v>36</v>
       </c>
       <c r="E43" s="9">
         <v>45677</v>
@@ -3774,7 +3772,7 @@
         <v>44378062.500671409</v>
       </c>
       <c r="L43" s="14">
-        <f>K43/SUMIFS(K:K,C:C,C43)</f>
+        <f t="shared" si="5"/>
         <v>0.23949579831932771</v>
       </c>
       <c r="M43" s="12">
@@ -3794,34 +3792,34 @@
         <v>594829.05701560189</v>
       </c>
       <c r="R43" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1415788.1965449164</v>
       </c>
-      <c r="T43" s="1">
-        <f t="shared" si="10"/>
+      <c r="S43" s="1">
+        <f t="shared" si="11"/>
         <v>42962274.304126494</v>
       </c>
+      <c r="T43" s="15">
+        <v>8.3217226632226835E-3</v>
+      </c>
       <c r="U43" s="15">
-        <v>8.3217226632226835E-3</v>
-      </c>
-      <c r="V43" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>3.1902884370481395E-2</v>
       </c>
-      <c r="W43" s="14">
-        <f>V43/SUMIFS(V:V,C:C,C43)</f>
+      <c r="V43" s="14">
+        <f>U43/SUMIFS(U:U,C:C,C43)</f>
         <v>7.8836930291926843E-2</v>
       </c>
     </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.4">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.4">
       <c r="B44" s="8" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="E44" s="9">
         <v>45677</v>
@@ -3848,7 +3846,7 @@
         <v>48270875.000730306</v>
       </c>
       <c r="L44" s="14">
-        <f>K44/SUMIFS(K:K,C:C,C44)</f>
+        <f t="shared" si="5"/>
         <v>0.26050420168067223</v>
       </c>
       <c r="M44" s="12">
@@ -3868,34 +3866,34 @@
         <v>614942.3246802513</v>
       </c>
       <c r="R44" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>3855894.7260911502</v>
       </c>
-      <c r="T44" s="1">
-        <f t="shared" si="10"/>
+      <c r="S44" s="1">
+        <f t="shared" si="11"/>
         <v>44414980.274639159</v>
       </c>
+      <c r="T44" s="15">
+        <v>8.3217226632226835E-3</v>
+      </c>
       <c r="U44" s="15">
-        <v>8.3217226632226835E-3</v>
-      </c>
-      <c r="V44" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>7.9880356965412638E-2</v>
       </c>
-      <c r="W44" s="14">
-        <f>V44/SUMIFS(V:V,C:C,C44)</f>
+      <c r="V44" s="14">
+        <f>U44/SUMIFS(U:U,C:C,C44)</f>
         <v>0.19739663851847022</v>
       </c>
     </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.4">
+    <row r="45" spans="2:22" x14ac:dyDescent="0.4">
       <c r="B45" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D45" s="8" t="s">
         <v>19</v>
-      </c>
-      <c r="C45" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="D45" s="8" t="s">
-        <v>36</v>
       </c>
       <c r="E45" s="9">
         <v>45677</v>
@@ -3922,7 +3920,7 @@
         <v>44378062.500671409</v>
       </c>
       <c r="L45" s="14">
-        <f>K45/SUMIFS(K:K,C:C,C45)</f>
+        <f t="shared" si="5"/>
         <v>0.23949579831932771</v>
       </c>
       <c r="M45" s="12">
@@ -3942,34 +3940,34 @@
         <v>537777.76254584803</v>
       </c>
       <c r="R45" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>5536389.4575400967</v>
       </c>
-      <c r="T45" s="1">
-        <f t="shared" si="10"/>
+      <c r="S45" s="1">
+        <f t="shared" si="11"/>
         <v>38841673.043131314</v>
       </c>
+      <c r="T45" s="15">
+        <v>8.3217226632226835E-3</v>
+      </c>
       <c r="U45" s="15">
-        <v>8.3217226632226835E-3</v>
-      </c>
-      <c r="V45" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.1247550962247695</v>
       </c>
-      <c r="W45" s="14">
-        <f>V45/SUMIFS(V:V,C:C,C45)</f>
+      <c r="V45" s="14">
+        <f>U45/SUMIFS(U:U,C:C,C45)</f>
         <v>0.30828901582751689</v>
       </c>
     </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.4">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.4">
       <c r="B46" s="8" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="E46" s="9">
         <v>45677</v>
@@ -3996,7 +3994,7 @@
         <v>48270875.000730306</v>
       </c>
       <c r="L46" s="14">
-        <f>K46/SUMIFS(K:K,C:C,C46)</f>
+        <f t="shared" si="5"/>
         <v>0.26050420168067223</v>
       </c>
       <c r="M46" s="12">
@@ -4016,30 +4014,30 @@
         <v>555961.92479314911</v>
       </c>
       <c r="R46" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>8115828.0441272464</v>
       </c>
-      <c r="T46" s="1">
-        <f t="shared" si="10"/>
+      <c r="S46" s="1">
+        <f t="shared" si="11"/>
         <v>40155046.956603058</v>
       </c>
+      <c r="T46" s="15">
+        <v>8.3217226632226835E-3</v>
+      </c>
       <c r="U46" s="15">
-        <v>8.3217226632226835E-3</v>
-      </c>
-      <c r="V46" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.16813094943906567</v>
       </c>
-      <c r="W46" s="14">
-        <f>V46/SUMIFS(V:V,C:C,C46)</f>
+      <c r="V46" s="14">
+        <f>U46/SUMIFS(U:U,C:C,C46)</f>
         <v>0.41547741536208593</v>
       </c>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.4">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.4">
       <c r="N47" s="19"/>
       <c r="O47" s="17"/>
     </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.4">
+    <row r="48" spans="2:22" x14ac:dyDescent="0.4">
       <c r="N48" s="8"/>
     </row>
     <row r="50" spans="3:13" x14ac:dyDescent="0.4">
@@ -4105,7 +4103,7 @@
       <c r="L61" s="17"/>
     </row>
   </sheetData>
-  <autoFilter ref="G1:W46" xr:uid="{D648F7A7-4983-45EB-B723-9754ACCF4D90}"/>
+  <autoFilter ref="A1:V46" xr:uid="{D648F7A7-4983-45EB-B723-9754ACCF4D90}"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>